--- a/Excel2FlatBuffers/ExcelTable/Sound.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/Sound.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityProject\BiuBiu\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7984B225-5714-4E8B-9A6D-9B48E5129CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F6B235-CFFE-4411-8C6B-37FA0F9341E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18930" yWindow="4710" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7590" yWindow="5070" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sound" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>skip</t>
   </si>
@@ -95,49 +95,352 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-01.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-02.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-03.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-04.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-05.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-06.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-07.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-08.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-09.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-10.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-11.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-12.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-13.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Sound/DM-CGS-14.wav</t>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/Bgm/Reverse.mp3</t>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.wav</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack_2.wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack_3.wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack_4.wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art3D/Sound/ButtonClick.wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/Dead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.wav</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/Explosion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>av</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FootStep_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.wav</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FootStep_2.wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FootStep_3.wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FootStep_4.wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FootStep_5.wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.wav</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Bgm/BattleBgm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wav</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -156,12 +459,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -225,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -261,6 +566,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -572,7 +878,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -666,8 +972,8 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
+      <c r="G5" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -684,8 +990,8 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
+      <c r="G6" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -700,9 +1006,9 @@
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -718,9 +1024,9 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -736,9 +1042,9 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -754,9 +1060,9 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -772,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -790,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -808,9 +1114,9 @@
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G13" t="s">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -826,9 +1132,9 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G14" t="s">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -844,9 +1150,9 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G15" t="s">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -862,9 +1168,9 @@
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G16" t="s">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -880,9 +1186,9 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G17" t="s">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -898,9 +1204,9 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G18" t="s">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -916,29 +1222,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20">
-        <v>1014</v>
-      </c>
       <c r="C20" s="10"/>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Excel2FlatBuffers/ExcelTable/Sound.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/Sound.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityProject\BiuBiu\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F6B235-CFFE-4411-8C6B-37FA0F9341E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2899F5A3-B5A7-4046-A84E-F933A16AAD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7590" yWindow="5070" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,7 +201,88 @@
   </si>
   <si>
     <r>
-      <t>Assets/GameAssets/Art3D/Sound/ButtonClick.wav</t>
+      <t>Assets/GameAssets/Art2D/Sound/Dead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.wav</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/Explosion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>av</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FootStep_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.wav</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FootStep_2.wav</t>
     </r>
     <r>
       <rPr>
@@ -216,7 +297,96 @@
   </si>
   <si>
     <r>
-      <t>Assets/GameAssets/Art2D/Sound/Dead</t>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FootStep_3.wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FootStep_4.wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FootStep_5.wav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assets/GameAssets/Art2D/Sound/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hit</t>
     </r>
     <r>
       <rPr>
@@ -232,7 +402,17 @@
   </si>
   <si>
     <r>
-      <t>Assets/GameAssets/Art2D/Sound/Explosion</t>
+      <t>Assets/GameAssets/Art2D/Bgm/BattleBgm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -243,61 +423,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>av</t>
+      <t>wav</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Assets/GameAssets/Art2D/Sound/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FootStep_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.wav</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Assets/GameAssets/Art2D/Sound/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FootStep_2.wav</t>
+      <t>Assets/GameAssets/Art2D/Sound/ButtonClick.wav</t>
     </r>
     <r>
       <rPr>
@@ -308,137 +440,6 @@
         <scheme val="minor"/>
       </rPr>
       <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Assets/GameAssets/Art2D/Sound/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FootStep_3.wav</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Assets/GameAssets/Art2D/Sound/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FootStep_4.wav</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Assets/GameAssets/Art2D/Sound/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FootStep_5.wav</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Assets/GameAssets/Art2D/Sound/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.wav</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Assets/GameAssets/Art2D/Bgm/BattleBgm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wav</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -878,7 +879,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -991,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1081,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1099,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1117,7 +1118,7 @@
         <v>0.4</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1135,7 +1136,7 @@
         <v>0.6</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1153,7 +1154,7 @@
         <v>0.6</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1171,7 +1172,7 @@
         <v>0.6</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
@@ -1189,7 +1190,7 @@
         <v>0.6</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
@@ -1207,7 +1208,7 @@
         <v>0.6</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
@@ -1225,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
